--- a/P3/checklist non exhaustive.xlsx
+++ b/P3/checklist non exhaustive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Analyse de la forme : </t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Learning Curve et prise de décision</t>
+  </si>
+  <si>
+    <t>Mettre les données dans un format propice au ML :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Améliorer la performance du modèle : </t>
+  </si>
+  <si>
+    <t>Suppression des Outliers</t>
+  </si>
+  <si>
+    <t>Pour commencer en général on drop les données NaN puis on fait un modèle simple</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,10 +597,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -636,6 +655,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3476625"/>
+          <a:ext cx="1657350" cy="1158986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,79 +1060,104 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/P3/checklist non exhaustive.xlsx
+++ b/P3/checklist non exhaustive.xlsx
@@ -238,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,12 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,11 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,7 +983,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,13 +1047,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1083,7 +1076,7 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1118,13 +1111,13 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1142,19 +1135,19 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
